--- a/data/trans_orig/P17G-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P17G-Clase-trans_orig.xlsx
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7421</v>
+        <v>6848</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02773932679144727</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0936188400641207</v>
+        <v>0.08638590388957489</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6833</v>
+        <v>5868</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02556037121179465</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09111825007029212</v>
+        <v>0.0782441694860585</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -833,19 +833,19 @@
         <v>4116</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1078</v>
+        <v>992</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9476</v>
+        <v>9205</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02668005999181299</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.006986461788849214</v>
+        <v>0.006430700737581056</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06142490121861835</v>
+        <v>0.059669046119333</v>
       </c>
     </row>
     <row r="6">
@@ -862,19 +862,19 @@
         <v>10524</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5168</v>
+        <v>5429</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19112</v>
+        <v>19268</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1327631828700739</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06518985761027016</v>
+        <v>0.06849077982086108</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2410942848255106</v>
+        <v>0.2430618851195578</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7610</v>
+        <v>7513</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02925936825183522</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1014822153112132</v>
+        <v>0.1001847481896307</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>12718</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6737</v>
+        <v>6891</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>21897</v>
+        <v>22806</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08244634507658351</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04367116788142408</v>
+        <v>0.04467356985133919</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1419463144919477</v>
+        <v>0.1478386316267872</v>
       </c>
     </row>
     <row r="7">
@@ -933,19 +933,19 @@
         <v>7374</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3626</v>
+        <v>3392</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13223</v>
+        <v>13480</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09302815548210219</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04574552894880409</v>
+        <v>0.04278660701403195</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1668070879781827</v>
+        <v>0.1700533262508562</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -954,19 +954,19 @@
         <v>7870</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3377</v>
+        <v>3646</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13785</v>
+        <v>14748</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1049435138849082</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04502695021419431</v>
+        <v>0.04861586811144723</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1838219164462116</v>
+        <v>0.1966554051077095</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -975,19 +975,19 @@
         <v>15244</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9258</v>
+        <v>9318</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23491</v>
+        <v>24033</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0988206294910712</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06001591686784217</v>
+        <v>0.06040396165915708</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.152281962008991</v>
+        <v>0.1557935154114533</v>
       </c>
     </row>
     <row r="8">
@@ -1004,19 +1004,19 @@
         <v>59173</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>49809</v>
+        <v>50132</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>66076</v>
+        <v>66044</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7464693348563767</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6283441921176084</v>
+        <v>0.6324235838569118</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8335522886110021</v>
+        <v>0.8331487377870194</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>63</v>
@@ -1025,19 +1025,19 @@
         <v>63012</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>55743</v>
+        <v>56310</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>68157</v>
+        <v>68900</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8402367466514619</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7433049578947084</v>
+        <v>0.7508736393126735</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9088449893150394</v>
+        <v>0.9187542284829519</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>119</v>
@@ -1046,19 +1046,19 @@
         <v>122184</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>110581</v>
+        <v>111450</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>131479</v>
+        <v>132385</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7920529654405323</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7168374243628309</v>
+        <v>0.7224686663955312</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.852306966432417</v>
+        <v>0.8581793590870465</v>
       </c>
     </row>
     <row r="9">
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4509</v>
+        <v>4440</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0135590603431375</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07212482812764939</v>
+        <v>0.07102640449238919</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5301</v>
+        <v>5961</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.009891970819528832</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05387088089931064</v>
+        <v>0.06057671364113383</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6137</v>
+        <v>6192</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01131647979363738</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03813619423091304</v>
+        <v>0.0384774029403027</v>
       </c>
     </row>
     <row r="12">
@@ -1268,19 +1268,19 @@
         <v>4978</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1905</v>
+        <v>1942</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10629</v>
+        <v>11191</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07963974178652737</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03047512088051248</v>
+        <v>0.03106419648409952</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.170036548405585</v>
+        <v>0.1790322087977678</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -1289,19 +1289,19 @@
         <v>7117</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3147</v>
+        <v>3050</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15122</v>
+        <v>13843</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07232066899402428</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03197397491402807</v>
+        <v>0.03099053362275375</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.15366364398041</v>
+        <v>0.1406703121822681</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -1310,19 +1310,19 @@
         <v>12095</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5972</v>
+        <v>6481</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>20022</v>
+        <v>20696</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07516381880205361</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03711002115846505</v>
+        <v>0.04027477360136773</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1244196770350106</v>
+        <v>0.1286102689966523</v>
       </c>
     </row>
     <row r="13">
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5192</v>
+        <v>4688</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01559763817152645</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08306022286963981</v>
+        <v>0.07500141764432407</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9860</v>
+        <v>7895</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02716033569340964</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1001916156278853</v>
+        <v>0.08023079231063401</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1381,19 +1381,19 @@
         <v>3648</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>977</v>
+        <v>988</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9297</v>
+        <v>9934</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02266871740081434</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006072698880957162</v>
+        <v>0.006138202737063086</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0577770332336674</v>
+        <v>0.0617313596792848</v>
       </c>
     </row>
     <row r="14">
@@ -1410,19 +1410,19 @@
         <v>55710</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>49886</v>
+        <v>49618</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>59678</v>
+        <v>59599</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8912035596988087</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7980424129653446</v>
+        <v>0.7937500629402637</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9546839822609821</v>
+        <v>0.9534125824007896</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>85</v>
@@ -1431,19 +1431,19 @@
         <v>87646</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>78740</v>
+        <v>79466</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>93098</v>
+        <v>92668</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8906270244930372</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8001257242780302</v>
+        <v>0.8075026768240272</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9460294930519834</v>
+        <v>0.9416614142496452</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>139</v>
@@ -1452,19 +1452,19 @@
         <v>143356</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>134336</v>
+        <v>133133</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>151097</v>
+        <v>149978</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8908509840034947</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8348016023813712</v>
+        <v>0.8273266035212012</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.938960120186758</v>
+        <v>0.9320019486801026</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>2758</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8181</v>
+        <v>7456</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02350530393686165</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.007500687813725944</v>
+        <v>0.007544830773099119</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06972880867827438</v>
+        <v>0.06355143045501795</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1637,19 +1637,19 @@
         <v>2758</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>880</v>
+        <v>859</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7431</v>
+        <v>7372</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01561917444935542</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.004982214587807957</v>
+        <v>0.004864023426912648</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04208513275641926</v>
+        <v>0.04174948402060267</v>
       </c>
     </row>
     <row r="18">
@@ -1666,19 +1666,19 @@
         <v>4722</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1806</v>
+        <v>1837</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10043</v>
+        <v>10164</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04024619552625841</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01539318551949508</v>
+        <v>0.01565661339332752</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08559699555154179</v>
+        <v>0.08663054674327644</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -1687,19 +1687,19 @@
         <v>3005</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>877</v>
+        <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7814</v>
+        <v>7121</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05072603580358054</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01480151015801373</v>
+        <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1318988370535169</v>
+        <v>0.1202040355962028</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>8</v>
@@ -1708,19 +1708,19 @@
         <v>7727</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3705</v>
+        <v>3773</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>15616</v>
+        <v>15297</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04376222653174304</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02098179517293708</v>
+        <v>0.02136686247073123</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0884424338769777</v>
+        <v>0.08663195779295732</v>
       </c>
     </row>
     <row r="19">
@@ -1737,19 +1737,19 @@
         <v>3395</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9886</v>
+        <v>10419</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02893299011338496</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007053463966863696</v>
+        <v>0.006974944799058479</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08425951652690016</v>
+        <v>0.08879963029788594</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6931</v>
+        <v>9041</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0233971264139515</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1169910000456729</v>
+        <v>0.1526177153103614</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -1779,19 +1779,19 @@
         <v>4781</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11842</v>
+        <v>12047</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02707568428674325</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007894818468982092</v>
+        <v>0.007869617861626512</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06706719339385889</v>
+        <v>0.06822855623311258</v>
       </c>
     </row>
     <row r="20">
@@ -1808,19 +1808,19 @@
         <v>106455</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>98601</v>
+        <v>98416</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>111361</v>
+        <v>111368</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.907315510423495</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.840374826379592</v>
+        <v>0.8387939598211646</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9491238633944395</v>
+        <v>0.9491840638538354</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>53</v>
@@ -1829,19 +1829,19 @@
         <v>54849</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>48964</v>
+        <v>48065</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>58257</v>
+        <v>58074</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.925876837782468</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8265324484382304</v>
+        <v>0.8113550588412356</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9834054665197386</v>
+        <v>0.9803238148804031</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>163</v>
@@ -1850,19 +1850,19 @@
         <v>161304</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>151394</v>
+        <v>151451</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>167628</v>
+        <v>167625</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9135429147321583</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8574179537803055</v>
+        <v>0.8577388029836311</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.949356907587911</v>
+        <v>0.9493413777390629</v>
       </c>
     </row>
     <row r="21">
@@ -2001,19 +2001,19 @@
         <v>5846</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2753</v>
+        <v>2022</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>11813</v>
+        <v>12532</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02033122307602121</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.009573116678615247</v>
+        <v>0.007030264517393935</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04108061092424678</v>
+        <v>0.04358278039019097</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -2022,19 +2022,19 @@
         <v>5106</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1965</v>
+        <v>1957</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12068</v>
+        <v>11344</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0229492399832196</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.00883155601706518</v>
+        <v>0.00879784152759725</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05424652640653832</v>
+        <v>0.05099020517049224</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>11</v>
@@ -2043,19 +2043,19 @@
         <v>10952</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5750</v>
+        <v>5900</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>19017</v>
+        <v>19588</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02147320658350968</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01127394511399797</v>
+        <v>0.01156885719469092</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0372870771604473</v>
+        <v>0.03840605644388405</v>
       </c>
     </row>
     <row r="24">
@@ -2072,19 +2072,19 @@
         <v>7419</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2762</v>
+        <v>2823</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15471</v>
+        <v>15770</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02580218780896544</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.009606650644200371</v>
+        <v>0.009818163551172104</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05380438967618827</v>
+        <v>0.05484176687780917</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -2093,19 +2093,19 @@
         <v>7417</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3086</v>
+        <v>3035</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14739</v>
+        <v>14692</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03334047734359839</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01387144960768398</v>
+        <v>0.01364090596041821</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06625091179427342</v>
+        <v>0.06604042673476139</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>13</v>
@@ -2114,19 +2114,19 @@
         <v>14837</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>7642</v>
+        <v>7926</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>24039</v>
+        <v>25375</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02909040275500108</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01498309541855039</v>
+        <v>0.0155396909737273</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04713428763485302</v>
+        <v>0.04975360803197475</v>
       </c>
     </row>
     <row r="25">
@@ -2143,19 +2143,19 @@
         <v>4565</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1739</v>
+        <v>1745</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9927</v>
+        <v>9340</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01587556773562783</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006048833522493165</v>
+        <v>0.00606981553917357</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03452413828079367</v>
+        <v>0.03248148694812557</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2164,19 +2164,19 @@
         <v>2963</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8877</v>
+        <v>7863</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01331924003696244</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004347723181088595</v>
+        <v>0.00434237388205792</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03990403689606509</v>
+        <v>0.03534376270648014</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -2185,19 +2185,19 @@
         <v>7528</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3698</v>
+        <v>2802</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>15065</v>
+        <v>14352</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01476049316770389</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007251353239880864</v>
+        <v>0.005494532742838112</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02953792599710099</v>
+        <v>0.02814008279181716</v>
       </c>
     </row>
     <row r="26">
@@ -2214,19 +2214,19 @@
         <v>269717</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>259916</v>
+        <v>260478</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>276717</v>
+        <v>277407</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9379910213793855</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9039077036516364</v>
+        <v>0.905862277079291</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9623382078486017</v>
+        <v>0.9647370730093011</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>203</v>
@@ -2235,19 +2235,19 @@
         <v>206984</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>196406</v>
+        <v>197345</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>213167</v>
+        <v>213463</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9303910426362195</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8828413332291579</v>
+        <v>0.8870627202046567</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9581831149114031</v>
+        <v>0.9595149613601119</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>476</v>
@@ -2256,19 +2256,19 @@
         <v>476701</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>464353</v>
+        <v>464273</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>486369</v>
+        <v>486864</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9346758974937853</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9104656381010088</v>
+        <v>0.9103082190992261</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9536329655006337</v>
+        <v>0.9546043873784712</v>
       </c>
     </row>
     <row r="27">
@@ -2407,19 +2407,19 @@
         <v>2736</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7402</v>
+        <v>8048</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03371258769038202</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01053578732524666</v>
+        <v>0.0103720104475501</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09119868423233822</v>
+        <v>0.09914849604075286</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6137</v>
+        <v>4784</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.004749463156397555</v>
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03078703331426122</v>
+        <v>0.02399985885479093</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -2449,19 +2449,19 @@
         <v>3683</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>947</v>
+        <v>933</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>9218</v>
+        <v>9328</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01313055129029886</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.003375037253258458</v>
+        <v>0.003326416364820398</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03286179414516839</v>
+        <v>0.03325639040711272</v>
       </c>
     </row>
     <row r="30">
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5837</v>
+        <v>5660</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02060739881521526</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07190701244262201</v>
+        <v>0.06972922676587871</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>4722</v>
+        <v>5449</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.005329179114830078</v>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02369161882012664</v>
+        <v>0.02733570793278311</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -2523,16 +2523,16 @@
         <v>830</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>8254</v>
+        <v>7870</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.009750252735108426</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.002958138037139118</v>
+        <v>0.002958756762211777</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02942633006674358</v>
+        <v>0.02805730339950726</v>
       </c>
     </row>
     <row r="31">
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9791</v>
+        <v>9182</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0137890689991991</v>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04912171890310603</v>
+        <v>0.04606587934877853</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>9159</v>
+        <v>9614</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.00979891239744398</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03265278176585771</v>
+        <v>0.03427603662583</v>
       </c>
     </row>
     <row r="32">
@@ -2612,19 +2612,19 @@
         <v>76759</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>71682</v>
+        <v>71016</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>79481</v>
+        <v>79485</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9456800134944027</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8831324519388141</v>
+        <v>0.8749276825619154</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9792159685828435</v>
+        <v>0.9792650939394728</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>187</v>
@@ -2633,19 +2633,19 @@
         <v>194572</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>187277</v>
+        <v>186953</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>197720</v>
+        <v>198207</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9761322887295732</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9395343282062667</v>
+        <v>0.9379094575502878</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9919218708407946</v>
+        <v>0.9943658796525495</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>264</v>
@@ -2654,19 +2654,19 @@
         <v>271331</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>263198</v>
+        <v>263572</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>275953</v>
+        <v>276034</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9673202835771487</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9383230618538956</v>
+        <v>0.9396583777546836</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9837956756003132</v>
+        <v>0.9840847333980799</v>
       </c>
     </row>
     <row r="33">
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5546</v>
+        <v>4514</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.002538927512368816</v>
@@ -2830,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01407767435960498</v>
+        <v>0.01145930205222643</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>5012</v>
+        <v>5724</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.002387066793130299</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01196303097188463</v>
+        <v>0.01366189913053492</v>
       </c>
     </row>
     <row r="36">
@@ -2881,19 +2881,19 @@
         <v>8594</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3076</v>
+        <v>3970</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>15321</v>
+        <v>16278</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02181553845184709</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.007808820153811472</v>
+        <v>0.01007756504605981</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03889365394374859</v>
+        <v>0.04132229665912155</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>8</v>
@@ -2902,19 +2902,19 @@
         <v>8594</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>4105</v>
+        <v>4091</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>16942</v>
+        <v>15957</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02051068695698024</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.009798057199819564</v>
+        <v>0.009763479223938464</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04043657462344807</v>
+        <v>0.03808533224937398</v>
       </c>
     </row>
     <row r="37">
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>4761</v>
+        <v>4505</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03382097303588338</v>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1899809444940447</v>
+        <v>0.179747230767081</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>8</v>
@@ -2952,19 +2952,19 @@
         <v>8115</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3880</v>
+        <v>3871</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>14893</v>
+        <v>16877</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02060136239619005</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.009848416739104521</v>
+        <v>0.009827776748848658</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03780708119481879</v>
+        <v>0.04284340469944201</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>9</v>
@@ -2973,19 +2973,19 @@
         <v>8963</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>4600</v>
+        <v>4017</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>16065</v>
+        <v>15790</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02139206617564689</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01097836101269013</v>
+        <v>0.009587374681912137</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03834292457736353</v>
+        <v>0.03768661410058965</v>
       </c>
     </row>
     <row r="38">
@@ -3002,7 +3002,7 @@
         <v>24213</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>20300</v>
+        <v>20556</v>
       </c>
       <c r="F38" s="5" t="n">
         <v>25061</v>
@@ -3011,7 +3011,7 @@
         <v>0.9661790269641166</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8100190555059568</v>
+        <v>0.8202527692329191</v>
       </c>
       <c r="I38" s="6" t="n">
         <v>1</v>
@@ -3023,19 +3023,19 @@
         <v>376219</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>366435</v>
+        <v>365316</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>383516</v>
+        <v>383454</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.955044171639594</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9302088101003121</v>
+        <v>0.9273663779984508</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9735680260396022</v>
+        <v>0.9734102728488137</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>395</v>
@@ -3044,19 +3044,19 @@
         <v>400432</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>390069</v>
+        <v>391278</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>407822</v>
+        <v>407937</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9557101800742426</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9309774322129176</v>
+        <v>0.9338621473132714</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9733488708766567</v>
+        <v>0.973623307618609</v>
       </c>
     </row>
     <row r="39">
@@ -3195,19 +3195,19 @@
         <v>14387</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>8184</v>
+        <v>8442</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>22654</v>
+        <v>23010</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02203587436064255</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01253580444403124</v>
+        <v>0.01292986865771854</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03469887327774192</v>
+        <v>0.03524333476336693</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>10</v>
@@ -3216,19 +3216,19 @@
         <v>9943</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>4929</v>
+        <v>4948</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>17778</v>
+        <v>17453</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.009483952115142682</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.00470182886608674</v>
+        <v>0.004719709935001228</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01695740308424813</v>
+        <v>0.01664736418188976</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>25</v>
@@ -3237,19 +3237,19 @@
         <v>24330</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>16387</v>
+        <v>15874</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>36708</v>
+        <v>34584</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01430096836779196</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.009632215396491665</v>
+        <v>0.009330558706819238</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02157705081840119</v>
+        <v>0.02032874188491286</v>
       </c>
     </row>
     <row r="42">
@@ -3266,19 +3266,19 @@
         <v>29317</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>20459</v>
+        <v>19664</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>43678</v>
+        <v>41624</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.04490305626068976</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.0313360592323664</v>
+        <v>0.03011789979570308</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.0669006318746784</v>
+        <v>0.06375359772490118</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>27</v>
@@ -3287,19 +3287,19 @@
         <v>29390</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>20563</v>
+        <v>18782</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>43101</v>
+        <v>42541</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02803357608954066</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01961472738437193</v>
+        <v>0.01791569032327071</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.04111199274630005</v>
+        <v>0.0405786095821051</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>54</v>
@@ -3308,19 +3308,19 @@
         <v>58706</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>44084</v>
+        <v>45507</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>75042</v>
+        <v>75119</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.03450752952621874</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02591265828375814</v>
+        <v>0.02674923216200556</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.04410988351802902</v>
+        <v>0.0441548804297786</v>
       </c>
     </row>
     <row r="43">
@@ -3337,19 +3337,19 @@
         <v>17157</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>10517</v>
+        <v>10726</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>26877</v>
+        <v>27550</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02627815988076944</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01610911488593865</v>
+        <v>0.01642811164241773</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.04116611622692909</v>
+        <v>0.04219702376761288</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>24</v>
@@ -3358,19 +3358,19 @@
         <v>25756</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>17066</v>
+        <v>17664</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>38129</v>
+        <v>38386</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.02456769482075709</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.016279046732432</v>
+        <v>0.01684874432611952</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.03637023898634975</v>
+        <v>0.03661470292531629</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>42</v>
@@ -3379,19 +3379,19 @@
         <v>42913</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>31969</v>
+        <v>31105</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>57286</v>
+        <v>56172</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.02522411523450066</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01879146766352781</v>
+        <v>0.01828335886747651</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.03367269977213307</v>
+        <v>0.03301803242093797</v>
       </c>
     </row>
     <row r="44">
@@ -3408,19 +3408,19 @@
         <v>592026</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>575637</v>
+        <v>576193</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>605909</v>
+        <v>605281</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.9067829094978983</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8816810227429657</v>
+        <v>0.8825327103867915</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9280479072230309</v>
+        <v>0.9270856734608212</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>961</v>
@@ -3429,19 +3429,19 @@
         <v>983282</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>965394</v>
+        <v>965423</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>997440</v>
+        <v>998546</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.9379147769745596</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.9208525527601105</v>
+        <v>0.920880321415508</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9514194172536717</v>
+        <v>0.9524752625553232</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1556</v>
@@ -3450,19 +3450,19 @@
         <v>1575308</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1551680</v>
+        <v>1554673</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1593494</v>
+        <v>1596174</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.9259673868714886</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.9120790248676622</v>
+        <v>0.9138385002175555</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9366572189150414</v>
+        <v>0.9382327625545149</v>
       </c>
     </row>
     <row r="45">
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8599</v>
+        <v>9024</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02252294555401892</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1091804926799342</v>
+        <v>0.1145877880922155</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -3880,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10787</v>
+        <v>8817</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01148095986786137</v>
@@ -3889,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06981698178114164</v>
+        <v>0.05706835446767314</v>
       </c>
     </row>
     <row r="6">
@@ -3906,19 +3906,19 @@
         <v>5226</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2053</v>
+        <v>1914</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11605</v>
+        <v>10918</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06899022938347329</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02710481175281492</v>
+        <v>0.02527119606228367</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1532149890534631</v>
+        <v>0.1441428535961833</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -3927,19 +3927,19 @@
         <v>2878</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>876</v>
+        <v>891</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7759</v>
+        <v>7752</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03654376492491589</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0111181400657244</v>
+        <v>0.0113140888843996</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09852532751297642</v>
+        <v>0.09843050082634874</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -3948,19 +3948,19 @@
         <v>8104</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3754</v>
+        <v>3165</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>15097</v>
+        <v>15265</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05245080493700175</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02429642148012995</v>
+        <v>0.02048627812269667</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09771722463471673</v>
+        <v>0.09880261531303684</v>
       </c>
     </row>
     <row r="7">
@@ -3977,19 +3977,19 @@
         <v>8494</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3783</v>
+        <v>3552</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16406</v>
+        <v>17250</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1121361910085674</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04993945378929589</v>
+        <v>0.04689800497922855</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2165921179136162</v>
+        <v>0.2277347194681145</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -3998,19 +3998,19 @@
         <v>11064</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5133</v>
+        <v>5875</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18208</v>
+        <v>19311</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1404801677617629</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06517193688426504</v>
+        <v>0.07459626831113893</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2311888971466814</v>
+        <v>0.2452032973049399</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -4019,19 +4019,19 @@
         <v>19557</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11515</v>
+        <v>11916</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31246</v>
+        <v>30463</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1265843926799944</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.074528833920756</v>
+        <v>0.07712777090149399</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2022416085943654</v>
+        <v>0.1971746394847836</v>
       </c>
     </row>
     <row r="8">
@@ -4048,19 +4048,19 @@
         <v>62025</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>53293</v>
+        <v>53039</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>68183</v>
+        <v>68521</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8188735796079593</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7035921696334172</v>
+        <v>0.7002390771641163</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9001791904253688</v>
+        <v>0.9046426686279725</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>56</v>
@@ -4069,19 +4069,19 @@
         <v>63040</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>54229</v>
+        <v>54437</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>69930</v>
+        <v>69028</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8004531217593023</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6885751720583732</v>
+        <v>0.6912128414916323</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8879368794740776</v>
+        <v>0.876480783738658</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>110</v>
@@ -4090,19 +4090,19 @@
         <v>125065</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>112059</v>
+        <v>112409</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>133794</v>
+        <v>134566</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8094838425151425</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7252997802757555</v>
+        <v>0.7275679994753647</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8659778708301957</v>
+        <v>0.870976726721682</v>
       </c>
     </row>
     <row r="9">
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4584</v>
+        <v>4109</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.010381146375153</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04820240920171226</v>
+        <v>0.04321434787220626</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>4998</v>
+        <v>5019</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005301722822031067</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02684489373396277</v>
+        <v>0.02695680709664481</v>
       </c>
     </row>
     <row r="12">
@@ -4304,19 +4304,19 @@
         <v>9087</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3956</v>
+        <v>4154</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16998</v>
+        <v>17527</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09556231207927429</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0415976666207775</v>
+        <v>0.04368406879709727</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1787554959604243</v>
+        <v>0.1843146409069142</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6102</v>
+        <v>6226</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02213417687499571</v>
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06697676073974997</v>
+        <v>0.0683363027488333</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -4346,19 +4346,19 @@
         <v>11104</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5168</v>
+        <v>6034</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19775</v>
+        <v>20757</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05963443032710727</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02775791796245384</v>
+        <v>0.03240635630792644</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.106204136081557</v>
+        <v>0.1114780114183586</v>
       </c>
     </row>
     <row r="13">
@@ -4375,19 +4375,19 @@
         <v>11054</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5243</v>
+        <v>5686</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19721</v>
+        <v>19938</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1162491818011582</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05513258548521353</v>
+        <v>0.05979415842771914</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2073903233065895</v>
+        <v>0.2096698009645103</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -4396,19 +4396,19 @@
         <v>7492</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2829</v>
+        <v>2721</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16768</v>
+        <v>16309</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08223250329544207</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03104926513413749</v>
+        <v>0.02986842479372979</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1840566204831476</v>
+        <v>0.1790163463606105</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -4417,19 +4417,19 @@
         <v>18546</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10419</v>
+        <v>11380</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29300</v>
+        <v>29314</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0996050548659608</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05595593254006306</v>
+        <v>0.06111986201097878</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1573622032437249</v>
+        <v>0.1574364041255098</v>
       </c>
     </row>
     <row r="14">
@@ -4446,19 +4446,19 @@
         <v>73962</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>63451</v>
+        <v>63850</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>82212</v>
+        <v>81951</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7778073597444145</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6672686102765152</v>
+        <v>0.6714655771951744</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8645653883036781</v>
+        <v>0.8618183295416333</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>78</v>
@@ -4467,19 +4467,19 @@
         <v>81596</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>72633</v>
+        <v>72756</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>87035</v>
+        <v>87192</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8956333198295622</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7972589480551396</v>
+        <v>0.798599388576729</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9553347090532894</v>
+        <v>0.957058793847942</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>142</v>
@@ -4488,19 +4488,19 @@
         <v>155558</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>142311</v>
+        <v>143437</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>165957</v>
+        <v>165755</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8354587919849009</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7643100095029546</v>
+        <v>0.7703595150365251</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8913093250878488</v>
+        <v>0.8902231546930983</v>
       </c>
     </row>
     <row r="15">
@@ -4642,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4720</v>
+        <v>4831</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.006153013929543837</v>
@@ -4651,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03066950053036316</v>
+        <v>0.03139085079890733</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5846</v>
+        <v>4839</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01049616846936849</v>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.064181177163465</v>
+        <v>0.05312119157638668</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5838</v>
+        <v>6154</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.007767878006446833</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02382931380968944</v>
+        <v>0.02512153243674716</v>
       </c>
     </row>
     <row r="18">
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5953</v>
+        <v>4900</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.006414473629221006</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03867987169682876</v>
+        <v>0.03184245966360884</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -4731,19 +4731,19 @@
         <v>3086</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8125</v>
+        <v>8237</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03388329266881245</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01086557422020508</v>
+        <v>0.01084268843499853</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08919936800508298</v>
+        <v>0.09042907300994903</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>4</v>
@@ -4752,19 +4752,19 @@
         <v>4074</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>9999</v>
+        <v>9673</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0166278815784984</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.004201119217778442</v>
+        <v>0.004195740564503155</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04081486878238522</v>
+        <v>0.03948572348513672</v>
       </c>
     </row>
     <row r="19">
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3879</v>
+        <v>4737</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.006088655186301365</v>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02520237804863425</v>
+        <v>0.03078100270488661</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4415</v>
+        <v>4579</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01135392151532325</v>
@@ -4814,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04846549789695787</v>
+        <v>0.05026896840101727</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6093</v>
+        <v>6919</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.008046377245716647</v>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02487118535988845</v>
+        <v>0.02824330747319829</v>
       </c>
     </row>
     <row r="20">
@@ -4852,19 +4852,19 @@
         <v>151024</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>146043</v>
+        <v>146115</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>152971</v>
+        <v>152974</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9813438572549338</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9489787559951995</v>
+        <v>0.9494460520321398</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9939976295910729</v>
+        <v>0.9940136259493977</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>82</v>
@@ -4873,19 +4873,19 @@
         <v>86013</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>80253</v>
+        <v>80746</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>89132</v>
+        <v>89117</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9442666173464959</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8810337679547814</v>
+        <v>0.8864425568003038</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9785013860314169</v>
+        <v>0.9783432573194508</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>221</v>
@@ -4894,19 +4894,19 @@
         <v>237037</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>229954</v>
+        <v>230932</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>241252</v>
+        <v>241976</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9675578631693381</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9386449105293743</v>
+        <v>0.9426386684128516</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9847609933396242</v>
+        <v>0.9877162757925535</v>
       </c>
     </row>
     <row r="21">
@@ -5045,19 +5045,19 @@
         <v>5259</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1770</v>
+        <v>1760</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>12043</v>
+        <v>11344</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.017794537082296</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.005989146665229354</v>
+        <v>0.005953541109976169</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04074689630683352</v>
+        <v>0.03838319313194077</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -5079,19 +5079,19 @@
         <v>5259</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1796</v>
+        <v>1757</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>11817</v>
+        <v>11380</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.009688821357600736</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.003308816957403349</v>
+        <v>0.003237007805980083</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02176918677317854</v>
+        <v>0.02096483161131833</v>
       </c>
     </row>
     <row r="24">
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6630</v>
+        <v>6555</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.006352815598568339</v>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02243158743044174</v>
+        <v>0.02217930428931331</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4751</v>
+        <v>4445</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.003831053767928798</v>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01921376346007147</v>
+        <v>0.01797680472079247</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -5150,19 +5150,19 @@
         <v>2825</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8573</v>
+        <v>7523</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.005204109991335211</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.001691107591129636</v>
+        <v>0.001681593607201956</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01579303937067585</v>
+        <v>0.01385883608086413</v>
       </c>
     </row>
     <row r="25">
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4973</v>
+        <v>5520</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.003866670675032276</v>
@@ -5204,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02011093992985286</v>
+        <v>0.02232380186426369</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4816</v>
+        <v>4848</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.001761334568462016</v>
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.008871658805648134</v>
+        <v>0.008931107265127252</v>
       </c>
     </row>
     <row r="26">
@@ -5242,19 +5242,19 @@
         <v>288421</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>282312</v>
+        <v>281977</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>292793</v>
+        <v>292785</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9758526473191357</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9551827199719604</v>
+        <v>0.9540509511034838</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9906460460812577</v>
+        <v>0.9906169227169144</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>225</v>
@@ -5263,7 +5263,7 @@
         <v>245362</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>240532</v>
+        <v>240705</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>247265</v>
@@ -5272,7 +5272,7 @@
         <v>0.9923022755570389</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9727708954856675</v>
+        <v>0.9734693568187013</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -5284,19 +5284,19 @@
         <v>533783</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>525976</v>
+        <v>526114</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>538330</v>
+        <v>538554</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9833457340826021</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.968964195843046</v>
+        <v>0.9692182307813735</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9917232785546324</v>
+        <v>0.9921364411847693</v>
       </c>
     </row>
     <row r="27">
@@ -5391,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4888</v>
+        <v>3874</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.008467720639802981</v>
@@ -5400,7 +5400,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04518095818129194</v>
+        <v>0.03580389291294529</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -5425,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5544</v>
+        <v>4613</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.002390176675318365</v>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01446456861444915</v>
+        <v>0.01203568645570289</v>
       </c>
     </row>
     <row r="29">
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7452</v>
+        <v>7364</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.007652139441655758</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02708715373740701</v>
+        <v>0.02676877598426321</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2</v>
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>7311</v>
+        <v>7887</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.005492176213327663</v>
@@ -5544,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01907372018943249</v>
+        <v>0.02057765122658628</v>
       </c>
     </row>
     <row r="31">
@@ -5608,7 +5608,7 @@
         <v>107275</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>103303</v>
+        <v>104317</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>108191</v>
@@ -5617,7 +5617,7 @@
         <v>0.9915322793601971</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9548190418187076</v>
+        <v>0.9641961070870514</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>1</v>
@@ -5629,7 +5629,7 @@
         <v>272994</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>267647</v>
+        <v>267735</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>275099</v>
@@ -5638,7 +5638,7 @@
         <v>0.9923478605583442</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9729128462625931</v>
+        <v>0.9732312240157368</v>
       </c>
       <c r="P32" s="6" t="n">
         <v>1</v>
@@ -5650,19 +5650,19 @@
         <v>380270</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>375071</v>
+        <v>375036</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>382376</v>
+        <v>382372</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.992117647111354</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9785552624518749</v>
+        <v>0.9784620877108825</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9976121835876665</v>
+        <v>0.9976011639224726</v>
       </c>
     </row>
     <row r="33">
@@ -5851,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6188</v>
+        <v>6000</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.05234610567407838</v>
@@ -5860,7 +5860,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1653825417002731</v>
+        <v>0.1603526862068264</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>8</v>
@@ -5869,19 +5869,19 @@
         <v>8159</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>4055</v>
+        <v>3907</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>15337</v>
+        <v>14697</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02316783948554747</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0115157235166105</v>
+        <v>0.01109388659043198</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.04355319741147294</v>
+        <v>0.04173504272376761</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>10</v>
@@ -5890,19 +5890,19 @@
         <v>10117</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>4908</v>
+        <v>4993</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>18989</v>
+        <v>18101</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02597041092438125</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01259912079175914</v>
+        <v>0.01281736139268826</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04874422278162237</v>
+        <v>0.04646261122408413</v>
       </c>
     </row>
     <row r="37">
@@ -5919,19 +5919,19 @@
         <v>4003</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>10629</v>
+        <v>11476</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.106977155654297</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02650239913646905</v>
+        <v>0.02656300226079838</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2840665870475806</v>
+        <v>0.3066938619544525</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>4</v>
@@ -5940,19 +5940,19 @@
         <v>3885</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>9572</v>
+        <v>8873</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01103119576604514</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0027639187161382</v>
+        <v>0.002758410720911505</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02718254697170121</v>
+        <v>0.02519722069299095</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>7</v>
@@ -5961,19 +5961,19 @@
         <v>7888</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3048</v>
+        <v>3030</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>16801</v>
+        <v>16548</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0202468018310827</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.007822808405020367</v>
+        <v>0.007778196852965658</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0431272498192919</v>
+        <v>0.04247838784524096</v>
       </c>
     </row>
     <row r="38">
@@ -5990,19 +5990,19 @@
         <v>31456</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>25675</v>
+        <v>24990</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>35394</v>
+        <v>35362</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8406767386716246</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.6861633094746538</v>
+        <v>0.6678525886715979</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9459004485607075</v>
+        <v>0.9450617396673676</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>320</v>
@@ -6011,19 +6011,19 @@
         <v>340111</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>331719</v>
+        <v>332468</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>345295</v>
+        <v>345965</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9658009647484074</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9419710545318376</v>
+        <v>0.9440969308277752</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9805235697020753</v>
+        <v>0.9824261652447814</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>351</v>
@@ -6032,19 +6032,19 @@
         <v>371567</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>361634</v>
+        <v>360925</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>379378</v>
+        <v>379097</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.953782787244536</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9282861278273652</v>
+        <v>0.9264643251519413</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9738316469350476</v>
+        <v>0.9731106274585306</v>
       </c>
     </row>
     <row r="39">
@@ -6139,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>4992</v>
+        <v>4597</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.001196154402979302</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.006518027783555907</v>
+        <v>0.006001763658975877</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>0</v>
@@ -6173,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4590</v>
+        <v>5704</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.0004818285011888136</v>
@@ -6182,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.002414121292674263</v>
+        <v>0.00299978235785823</v>
       </c>
     </row>
     <row r="41">
@@ -6199,19 +6199,19 @@
         <v>7193</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2770</v>
+        <v>2811</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>15084</v>
+        <v>14258</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.009392099927909141</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.003616208075887207</v>
+        <v>0.003670704571501688</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01969486548887265</v>
+        <v>0.0186155872441774</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2</v>
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>11773</v>
+        <v>12450</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.002404210003614875</v>
@@ -6232,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01036822981272035</v>
+        <v>0.010964879606708</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>9</v>
@@ -6241,19 +6241,19 @@
         <v>9923</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>4401</v>
+        <v>4654</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>19091</v>
+        <v>18971</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.005219034344276004</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.002314832230935397</v>
+        <v>0.002447741338817248</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01004065618372829</v>
+        <v>0.0099777776921877</v>
       </c>
     </row>
     <row r="42">
@@ -6270,19 +6270,19 @@
         <v>19136</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>12224</v>
+        <v>11137</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>30055</v>
+        <v>29993</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.02498536407262326</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01596048570582816</v>
+        <v>0.01454075530423916</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.03924129355270488</v>
+        <v>0.03916040918571548</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>19</v>
@@ -6291,19 +6291,19 @@
         <v>19192</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>12280</v>
+        <v>12196</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>30293</v>
+        <v>29570</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.01690227255562836</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01081481145548536</v>
+        <v>0.01074105698649727</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.02667855041611651</v>
+        <v>0.02604197181789823</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>37</v>
@@ -6312,19 +6312,19 @@
         <v>38328</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>26812</v>
+        <v>27350</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>52032</v>
+        <v>51475</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.02015826012788918</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.01410125926541111</v>
+        <v>0.01438440380046459</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.02736585911039138</v>
+        <v>0.02707261133935688</v>
       </c>
     </row>
     <row r="43">
@@ -6341,19 +6341,19 @@
         <v>24488</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>15365</v>
+        <v>16262</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>37475</v>
+        <v>38645</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.03197277304788298</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02006101185454983</v>
+        <v>0.02123255991479258</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.04892944224934589</v>
+        <v>0.05045680749516426</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>21</v>
@@ -6362,19 +6362,19 @@
         <v>24430</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>15954</v>
+        <v>15374</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>37029</v>
+        <v>36383</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.02151563616704917</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01405044390074515</v>
+        <v>0.01354017767786882</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.03261124842645102</v>
+        <v>0.03204219971813165</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>42</v>
@@ -6383,19 +6383,19 @@
         <v>48918</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>35561</v>
+        <v>35951</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>66379</v>
+        <v>67238</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.02572792395988657</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01870262633265693</v>
+        <v>0.01890822677606722</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.03491102026156282</v>
+        <v>0.0353632244343387</v>
       </c>
     </row>
     <row r="44">
@@ -6412,19 +6412,19 @@
         <v>714164</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>698073</v>
+        <v>696397</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>727478</v>
+        <v>727619</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.9324536085486054</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.9114435628330648</v>
+        <v>0.9092557246974989</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9498362905451144</v>
+        <v>0.9500208238029398</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1015</v>
@@ -6433,19 +6433,19 @@
         <v>1089116</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1071044</v>
+        <v>1074560</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1100890</v>
+        <v>1102159</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.9591778812737076</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.9432620039079129</v>
+        <v>0.9463582616526849</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9695476181066404</v>
+        <v>0.9706653618790428</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1672</v>
@@ -6454,19 +6454,19 @@
         <v>1803279</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1780984</v>
+        <v>1781287</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1822325</v>
+        <v>1822468</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.9484129530667594</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.9366872711533013</v>
+        <v>0.9368461769246217</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9584296301465767</v>
+        <v>0.9585051134179253</v>
       </c>
     </row>
     <row r="45">
@@ -6847,19 +6847,19 @@
         <v>3118</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>984</v>
+        <v>972</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8309</v>
+        <v>8513</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03041659912894029</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.009598741737368438</v>
+        <v>0.009483597566832456</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08104934941404132</v>
+        <v>0.08303657950314058</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -6881,19 +6881,19 @@
         <v>3118</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8621</v>
+        <v>8427</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01579031052954963</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004923933810429341</v>
+        <v>0.004953571612136915</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04365057391925245</v>
+        <v>0.04267120362231077</v>
       </c>
     </row>
     <row r="6">
@@ -6910,19 +6910,19 @@
         <v>3049</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>942</v>
+        <v>964</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8223</v>
+        <v>8881</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02973498240820207</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.009191923270377541</v>
+        <v>0.009399970778072577</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08020901264580384</v>
+        <v>0.08662568355434842</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4213</v>
+        <v>4985</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01033029221339861</v>
@@ -6943,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04436394374230467</v>
+        <v>0.05249621386270483</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -6952,19 +6952,19 @@
         <v>4030</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1001</v>
+        <v>988</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9283</v>
+        <v>9319</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02040393925746013</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.005070771270296251</v>
+        <v>0.005004782098608556</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04700518328870751</v>
+        <v>0.04718547629584857</v>
       </c>
     </row>
     <row r="7">
@@ -6981,19 +6981,19 @@
         <v>17573</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9888</v>
+        <v>10313</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27214</v>
+        <v>26803</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1714025786333064</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09645074150577845</v>
+        <v>0.1005883934951217</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2654439413756939</v>
+        <v>0.2614317360720917</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -7002,19 +7002,19 @@
         <v>15471</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9353</v>
+        <v>9395</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24373</v>
+        <v>24393</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1629080896492469</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09848623476954244</v>
+        <v>0.09893366149099925</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2566553586675774</v>
+        <v>0.2568601715810627</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -7023,19 +7023,19 @@
         <v>33043</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23406</v>
+        <v>22820</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45599</v>
+        <v>46894</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1673178732111612</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.118517513000092</v>
+        <v>0.1155523017386888</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2308916543173361</v>
+        <v>0.237452558723743</v>
       </c>
     </row>
     <row r="8">
@@ -7052,19 +7052,19 @@
         <v>78783</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>68564</v>
+        <v>69121</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>87088</v>
+        <v>86851</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7684458398295513</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6687650892043114</v>
+        <v>0.6742007026386941</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8494439447592853</v>
+        <v>0.8471320404790813</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>73</v>
@@ -7073,19 +7073,19 @@
         <v>78513</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>69789</v>
+        <v>70145</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>85089</v>
+        <v>84866</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8267616181373544</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7348931187200197</v>
+        <v>0.7386452890748082</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8960030544694972</v>
+        <v>0.893654636340258</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>145</v>
@@ -7094,19 +7094,19 @@
         <v>157298</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>144521</v>
+        <v>142174</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>167715</v>
+        <v>167659</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.796487877001829</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7317945020514803</v>
+        <v>0.7199088187063862</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8492363939963998</v>
+        <v>0.8489526109964081</v>
       </c>
     </row>
     <row r="9">
@@ -7261,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6448</v>
+        <v>5987</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.019469173310333</v>
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0689473569743015</v>
+        <v>0.06401942240961468</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -7282,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6202</v>
+        <v>6017</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.009779497742405141</v>
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0333111132782632</v>
+        <v>0.03231534302400406</v>
       </c>
     </row>
     <row r="12">
@@ -7308,19 +7308,19 @@
         <v>2684</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>848</v>
+        <v>872</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7117</v>
+        <v>7434</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0289614683348754</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.009153833833218284</v>
+        <v>0.009410510799342768</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07680745053472715</v>
+        <v>0.08022568557002309</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -7332,7 +7332,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7658</v>
+        <v>8054</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02318636428879338</v>
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0818812533274387</v>
+        <v>0.08611320885789459</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -7350,19 +7350,19 @@
         <v>4852</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1781</v>
+        <v>1728</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10202</v>
+        <v>10656</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02606059442099231</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.009562812584741268</v>
+        <v>0.009282828734417985</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05479408974975646</v>
+        <v>0.05723070929285137</v>
       </c>
     </row>
     <row r="13">
@@ -7379,19 +7379,19 @@
         <v>13307</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7942</v>
+        <v>7653</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21926</v>
+        <v>21265</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1435983017203163</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08570599127911341</v>
+        <v>0.08258444962489547</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2366112584933864</v>
+        <v>0.2294791941199905</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -7400,19 +7400,19 @@
         <v>5879</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2806</v>
+        <v>2102</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11988</v>
+        <v>10923</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0628624506649766</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0299979866645779</v>
+        <v>0.02247690957704985</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1281821255214906</v>
+        <v>0.1167923121977397</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -7421,19 +7421,19 @@
         <v>19186</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11735</v>
+        <v>11665</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29893</v>
+        <v>29388</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1030441363974463</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06302929244993342</v>
+        <v>0.06264996699450351</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1605520321530041</v>
+        <v>0.1578388833768292</v>
       </c>
     </row>
     <row r="14">
@@ -7450,19 +7450,19 @@
         <v>76676</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>67940</v>
+        <v>67927</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>83101</v>
+        <v>83061</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8274402299448083</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7331680252580424</v>
+        <v>0.7330251818383893</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.896784646729881</v>
+        <v>0.896350281370327</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>78</v>
@@ -7471,19 +7471,19 @@
         <v>83656</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>76746</v>
+        <v>77114</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>88561</v>
+        <v>88696</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.894482011735897</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8205886130264521</v>
+        <v>0.8245308121115701</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9469256082979132</v>
+        <v>0.9483646050794969</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>150</v>
@@ -7492,19 +7492,19 @@
         <v>160332</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>149220</v>
+        <v>149686</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>168734</v>
+        <v>169032</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8611157714391562</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8014352011269019</v>
+        <v>0.8039403723568097</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9062421458990004</v>
+        <v>0.9078423590117533</v>
       </c>
     </row>
     <row r="15">
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4801</v>
+        <v>5155</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.006189126871007847</v>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03138806108514054</v>
+        <v>0.03370410054991805</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -7680,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5077</v>
+        <v>5409</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.004432878315202934</v>
@@ -7689,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02377494389498501</v>
+        <v>0.02532927926716887</v>
       </c>
     </row>
     <row r="18">
@@ -7706,19 +7706,19 @@
         <v>5012</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1322</v>
+        <v>1998</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12831</v>
+        <v>13210</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03276809621457761</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.008641243024701558</v>
+        <v>0.01306275562227076</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0838904488094787</v>
+        <v>0.0863703026453654</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5378</v>
+        <v>4816</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01573751701295246</v>
@@ -7739,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0887480344653625</v>
+        <v>0.07947346642685121</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>5</v>
@@ -7748,19 +7748,19 @@
         <v>5965</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1956</v>
+        <v>2017</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>13622</v>
+        <v>12584</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02793543875727382</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.009157604275978939</v>
+        <v>0.009443474126911544</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06379109427424753</v>
+        <v>0.05892934980408745</v>
       </c>
     </row>
     <row r="19">
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6557</v>
+        <v>6521</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.008712082607998694</v>
@@ -7789,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04287086379422619</v>
+        <v>0.04263458332700672</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8115</v>
+        <v>7754</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03709149632884366</v>
@@ -7810,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1339248915487117</v>
+        <v>0.1279646506462817</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -7819,19 +7819,19 @@
         <v>3580</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9649</v>
+        <v>10627</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0167651255332131</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004521205460083714</v>
+        <v>0.004564852111528768</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04518640456672711</v>
+        <v>0.04976534028505601</v>
       </c>
     </row>
     <row r="20">
@@ -7848,19 +7848,19 @@
         <v>145657</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>137155</v>
+        <v>138369</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>149963</v>
+        <v>149943</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9523306943064158</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8967404670311414</v>
+        <v>0.9046811954112114</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9804831003428903</v>
+        <v>0.9803495754924216</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>53</v>
@@ -7869,19 +7869,19 @@
         <v>57395</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>51570</v>
+        <v>51690</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>59648</v>
+        <v>59665</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9471709866582039</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8510507913057058</v>
+        <v>0.8530204512143329</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9843538126282242</v>
+        <v>0.9846316575988753</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>193</v>
@@ -7890,19 +7890,19 @@
         <v>203052</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>194054</v>
+        <v>193381</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>208586</v>
+        <v>208190</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9508665573943101</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9087324014901538</v>
+        <v>0.9055809602652976</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9767805684837373</v>
+        <v>0.974929495093212</v>
       </c>
     </row>
     <row r="21">
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5646</v>
+        <v>5084</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003401630911708517</v>
@@ -8006,7 +8006,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01953266223162627</v>
+        <v>0.01758896110365376</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3983</v>
+        <v>4947</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.001773996912241463</v>
@@ -8040,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.007186371503874162</v>
+        <v>0.008925743451216168</v>
       </c>
     </row>
     <row r="23">
@@ -8057,19 +8057,19 @@
         <v>3850</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>961</v>
+        <v>1011</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10481</v>
+        <v>9754</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01331749587599972</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.003325702057866206</v>
+        <v>0.003498334958149386</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03625918636257092</v>
+        <v>0.03374365111077621</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -8091,19 +8091,19 @@
         <v>3850</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>9646</v>
+        <v>9735</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.00694525572468585</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.001731818805261579</v>
+        <v>0.001744854164010058</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01740192423477195</v>
+        <v>0.01756252216823786</v>
       </c>
     </row>
     <row r="24">
@@ -8120,19 +8120,19 @@
         <v>4341</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11646</v>
+        <v>11799</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01501771283996263</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.003526407061585435</v>
+        <v>0.003546956438633044</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04028653876000769</v>
+        <v>0.04081894807522125</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -8141,19 +8141,19 @@
         <v>6887</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2534</v>
+        <v>2812</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13673</v>
+        <v>14281</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02596621029845748</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.009554676344101547</v>
+        <v>0.01060348142343196</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05155311217922349</v>
+        <v>0.05384807248803425</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -8162,19 +8162,19 @@
         <v>11228</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5349</v>
+        <v>5478</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>20916</v>
+        <v>20574</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02025641955713978</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.009650446971546907</v>
+        <v>0.009883007623573851</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03773598884868246</v>
+        <v>0.03711873588973748</v>
       </c>
     </row>
     <row r="25">
@@ -8191,19 +8191,19 @@
         <v>6054</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2041</v>
+        <v>2057</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14331</v>
+        <v>13726</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02094249012785408</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007061595913028627</v>
+        <v>0.007117407267621811</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04957715909527943</v>
+        <v>0.04748225971008901</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -8212,19 +8212,19 @@
         <v>5526</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2016</v>
+        <v>1979</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12844</v>
+        <v>13052</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02083592585721493</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007602053909728164</v>
+        <v>0.007460287373631995</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04842950683299761</v>
+        <v>0.04921278644846008</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -8233,19 +8233,19 @@
         <v>11580</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5250</v>
+        <v>5328</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>20531</v>
+        <v>21064</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02089150057768752</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.00947079513239265</v>
+        <v>0.009613091738587263</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0370414708620984</v>
+        <v>0.0380023279979661</v>
       </c>
     </row>
     <row r="26">
@@ -8262,19 +8262,19 @@
         <v>273839</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>263230</v>
+        <v>263138</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>280726</v>
+        <v>280861</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9473206702444751</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9106187265507563</v>
+        <v>0.9103010813149356</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9711456446027847</v>
+        <v>0.9716121427396178</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>240</v>
@@ -8283,19 +8283,19 @@
         <v>252804</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>242599</v>
+        <v>243931</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>258849</v>
+        <v>258612</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9531978638443276</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9147175579217779</v>
+        <v>0.9197407457699684</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9759879290320653</v>
+        <v>0.975095794242383</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>503</v>
@@ -8304,19 +8304,19 @@
         <v>526643</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>513802</v>
+        <v>512965</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>536069</v>
+        <v>536072</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9501328272282454</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9269655216566531</v>
+        <v>0.9254548110728629</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9671369357201334</v>
+        <v>0.9671436146084573</v>
       </c>
     </row>
     <row r="27">
@@ -8458,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5256</v>
+        <v>4319</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.006478062305086635</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03226420619235579</v>
+        <v>0.02650781996853201</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -8476,19 +8476,19 @@
         <v>2968</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8108</v>
+        <v>9067</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01131895968706207</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.003360930714540404</v>
+        <v>0.003385207314001471</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03091764282639028</v>
+        <v>0.03457418707697062</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -8497,19 +8497,19 @@
         <v>4024</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1059</v>
+        <v>1048</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>10935</v>
+        <v>9397</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.009464029835280012</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.002489755340832193</v>
+        <v>0.002464372853692743</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02571947565835931</v>
+        <v>0.02210110378216621</v>
       </c>
     </row>
     <row r="30">
@@ -8529,7 +8529,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5681</v>
+        <v>5729</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.006848112013386582</v>
@@ -8538,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03486990926994711</v>
+        <v>0.03516447515478698</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4</v>
@@ -8547,19 +8547,19 @@
         <v>4391</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1126</v>
+        <v>1134</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>10487</v>
+        <v>10749</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01674435253120912</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.004294745358931248</v>
+        <v>0.004324592415119252</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03998647269967138</v>
+        <v>0.04098687202990071</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5</v>
@@ -8568,19 +8568,19 @@
         <v>5507</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2081</v>
+        <v>2077</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>12155</v>
+        <v>12442</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01295232173434203</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.004894487607113673</v>
+        <v>0.004884732886158102</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02858951878245774</v>
+        <v>0.0292646616484147</v>
       </c>
     </row>
     <row r="31">
@@ -8597,19 +8597,19 @@
         <v>4185</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>9568</v>
+        <v>10305</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02568761712627364</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.006400922903161</v>
+        <v>0.006421695201285003</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05873201274587463</v>
+        <v>0.06325112641806761</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -8618,19 +8618,19 @@
         <v>3686</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>11890</v>
+        <v>9896</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01405398588915882</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.003717505752831726</v>
+        <v>0.00368649025749871</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04533625140215256</v>
+        <v>0.03773344572698421</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>7</v>
@@ -8639,19 +8639,19 @@
         <v>7871</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3677</v>
+        <v>3206</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>16194</v>
+        <v>15339</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0185117481930444</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.008647571441242931</v>
+        <v>0.007540273154953778</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03808836476337825</v>
+        <v>0.03607810454350888</v>
       </c>
     </row>
     <row r="32">
@@ -8668,19 +8668,19 @@
         <v>156560</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>150107</v>
+        <v>148959</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>160772</v>
+        <v>160757</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9609862085552532</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9213757569139426</v>
+        <v>0.9143331149523763</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9868387478677875</v>
+        <v>0.9867491417225375</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>236</v>
@@ -8689,19 +8689,19 @@
         <v>251208</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>241859</v>
+        <v>242490</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>256601</v>
+        <v>256240</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.95788270189257</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9222367756858425</v>
+        <v>0.9246406858814813</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9784495174853158</v>
+        <v>0.977073546372655</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>388</v>
@@ -8710,19 +8710,19 @@
         <v>407767</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>398125</v>
+        <v>397704</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>414617</v>
+        <v>414812</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9590719002373336</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.936395202780367</v>
+        <v>0.935404389800658</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9751843715916262</v>
+        <v>0.9756420776467831</v>
       </c>
     </row>
     <row r="33">
@@ -8864,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5776</v>
+        <v>6675</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04363467326076207</v>
@@ -8873,7 +8873,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.132187868697192</v>
+        <v>0.152768941920188</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>0</v>
@@ -8898,7 +8898,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>6694</v>
+        <v>6604</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.004700986885500313</v>
@@ -8907,7 +8907,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01650557591646647</v>
+        <v>0.01628351735925152</v>
       </c>
     </row>
     <row r="36">
@@ -8937,19 +8937,19 @@
         <v>3793</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>10620</v>
+        <v>12279</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01048090791432223</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.002612157031988402</v>
+        <v>0.002603222446550308</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0293475333949398</v>
+        <v>0.03393092584738015</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3</v>
@@ -8958,19 +8958,19 @@
         <v>3793</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>941</v>
+        <v>958</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>11300</v>
+        <v>11685</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.009351746012297147</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.002320072945135255</v>
+        <v>0.002361566248343145</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0278636270927343</v>
+        <v>0.02881070866186151</v>
       </c>
     </row>
     <row r="37">
@@ -8987,19 +8987,19 @@
         <v>2887</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>7746</v>
+        <v>7331</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.06607390077459992</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01964090537528692</v>
+        <v>0.01958918631159708</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1772831482616091</v>
+        <v>0.1677864408068148</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>11</v>
@@ -9008,19 +9008,19 @@
         <v>13405</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>7282</v>
+        <v>6867</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>24712</v>
+        <v>23471</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03704322174268758</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0201224206227529</v>
+        <v>0.01897541026006343</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.06828993310813462</v>
+        <v>0.06485933807123496</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>14</v>
@@ -9029,19 +9029,19 @@
         <v>16292</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>8878</v>
+        <v>9131</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>26213</v>
+        <v>27051</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04017084551542957</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02189121667881898</v>
+        <v>0.02251366005615608</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.06463238330721156</v>
+        <v>0.06669967416133496</v>
       </c>
     </row>
     <row r="38">
@@ -9058,19 +9058,19 @@
         <v>38900</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>33287</v>
+        <v>33911</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>41811</v>
+        <v>41857</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8902914259646381</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7618402645142374</v>
+        <v>0.7761129546988621</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9569196017577203</v>
+        <v>0.957984980110189</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>309</v>
@@ -9079,19 +9079,19 @@
         <v>344672</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>331164</v>
+        <v>333276</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>351712</v>
+        <v>352244</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9524758703429902</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9151454722603236</v>
+        <v>0.9209828306385668</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9719284091494397</v>
+        <v>0.9733988448737162</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>347</v>
@@ -9100,19 +9100,19 @@
         <v>383572</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>372387</v>
+        <v>371630</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>392133</v>
+        <v>392706</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.945776421586773</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9181969553142096</v>
+        <v>0.9163309403554977</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9668856003248039</v>
+        <v>0.9682981246298449</v>
       </c>
     </row>
     <row r="39">
@@ -9207,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>6237</v>
+        <v>5827</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.001165303473275647</v>
@@ -9216,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.007391312547758788</v>
+        <v>0.006905737706233199</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>0</v>
@@ -9241,7 +9241,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4916</v>
+        <v>4912</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.0004960541979988369</v>
@@ -9250,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.002480185322311671</v>
+        <v>0.002478226323982543</v>
       </c>
     </row>
     <row r="41">
@@ -9267,19 +9267,19 @@
         <v>10877</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>5636</v>
+        <v>5928</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>18951</v>
+        <v>18936</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01288981214973531</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.006679107213114973</v>
+        <v>0.007025757015749682</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02245837711519329</v>
+        <v>0.02244117776055221</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>5</v>
@@ -9288,19 +9288,19 @@
         <v>4789</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1844</v>
+        <v>1774</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>10814</v>
+        <v>10658</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.004206931639211403</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.001620020595008609</v>
+        <v>0.00155821523214876</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.009499388854890493</v>
+        <v>0.009362424456992485</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>16</v>
@@ -9309,19 +9309,19 @@
         <v>15666</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>9335</v>
+        <v>8822</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>25413</v>
+        <v>24374</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.007903118449553832</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.004709173163510483</v>
+        <v>0.004450568127774242</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01282031558467947</v>
+        <v>0.01229616852448082</v>
       </c>
     </row>
     <row r="42">
@@ -9338,19 +9338,19 @@
         <v>16201</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>9502</v>
+        <v>9371</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>26784</v>
+        <v>27128</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.01919960225047254</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01126089503135341</v>
+        <v>0.011105371294906</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.03174187085460513</v>
+        <v>0.03214926011943402</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>17</v>
@@ -9359,19 +9359,19 @@
         <v>19174</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>11155</v>
+        <v>12618</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>28806</v>
+        <v>30428</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.01684239110654719</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.009798632644875975</v>
+        <v>0.01108386656710755</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.02530359048991561</v>
+        <v>0.02672834618661436</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>31</v>
@@ -9380,19 +9380,19 @@
         <v>35375</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>24265</v>
+        <v>24933</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>49998</v>
+        <v>50985</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.01784582455571294</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.01224122077541552</v>
+        <v>0.01257799536368075</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.02522295185870965</v>
+        <v>0.02572064960035228</v>
       </c>
     </row>
     <row r="43">
@@ -9409,19 +9409,19 @@
         <v>45338</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>32759</v>
+        <v>32934</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>60139</v>
+        <v>61283</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.05372943031032088</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.03882224305012423</v>
+        <v>0.03903029029894895</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.07127057759561663</v>
+        <v>0.0726259783542243</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>42</v>
@@ -9430,19 +9430,19 @@
         <v>46214</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>33993</v>
+        <v>32911</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>62301</v>
+        <v>61287</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.04059464192262784</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.02985963817312364</v>
+        <v>0.02890919136514119</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.05472585577875352</v>
+        <v>0.05383481047250806</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>83</v>
@@ -9451,19 +9451,19 @@
         <v>91552</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>72477</v>
+        <v>74370</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>112372</v>
+        <v>113223</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.04618594673632274</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03656303837072111</v>
+        <v>0.03751798024993879</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.056689156344907</v>
+        <v>0.05711867823102415</v>
       </c>
     </row>
     <row r="44">
@@ -9480,19 +9480,19 @@
         <v>770415</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>753365</v>
+        <v>751414</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>786814</v>
+        <v>785625</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.9130158518161956</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8928107583081162</v>
+        <v>0.8904983171430891</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9324512523318048</v>
+        <v>0.9310421632834623</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>989</v>
@@ -9501,19 +9501,19 @@
         <v>1068250</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1051249</v>
+        <v>1049160</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1084611</v>
+        <v>1083929</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.9383560353316136</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.9234225651316625</v>
+        <v>0.9215871230875481</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9527277267666338</v>
+        <v>0.9521285985473366</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1726</v>
@@ -9522,19 +9522,19 @@
         <v>1838664</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1811854</v>
+        <v>1813630</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1860763</v>
+        <v>1860434</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.9275690560604116</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.9140437789119966</v>
+        <v>0.9149397342819149</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9387173390181796</v>
+        <v>0.9385513690822422</v>
       </c>
     </row>
     <row r="45">
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4285</v>
+        <v>3603</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005605510653480483</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03559736704611077</v>
+        <v>0.02992863214575831</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -9905,16 +9905,16 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3642</v>
+        <v>3419</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.002679546707410249</v>
+        <v>0.002679546707410248</v>
       </c>
       <c r="V4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01446094920905901</v>
+        <v>0.01357770492940876</v>
       </c>
     </row>
     <row r="5">
@@ -9931,19 +9931,19 @@
         <v>2390</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6837</v>
+        <v>7354</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.01818085417725849</v>
+        <v>0.01818085417725848</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.005170788054324957</v>
+        <v>0.005110401942029432</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05200869382337831</v>
+        <v>0.05594668515538391</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -9952,19 +9952,19 @@
         <v>1899</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5403</v>
+        <v>4899</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01577463771211082</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.004680149711610637</v>
+        <v>0.004528202110364637</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04488084094175957</v>
+        <v>0.04069443230955869</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -9973,19 +9973,19 @@
         <v>4289</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1373</v>
+        <v>1706</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8938</v>
+        <v>8978</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.01703063436588422</v>
+        <v>0.01703063436588421</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005451928677061976</v>
+        <v>0.006773255341299426</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03549314984371275</v>
+        <v>0.03565081508300575</v>
       </c>
     </row>
     <row r="6">
@@ -10002,19 +10002,19 @@
         <v>16609</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9376</v>
+        <v>9373</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26467</v>
+        <v>26375</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1263507720978173</v>
+        <v>0.1263507720978172</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07132437108469794</v>
+        <v>0.0713060433131687</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.201343210642334</v>
+        <v>0.2006422217920197</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>22</v>
@@ -10023,19 +10023,19 @@
         <v>16374</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10694</v>
+        <v>11161</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23565</v>
+        <v>23672</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1360144836453701</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08883244636788731</v>
+        <v>0.09271412521381565</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1957533848722235</v>
+        <v>0.1966442685765944</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>36</v>
@@ -10044,19 +10044,19 @@
         <v>32982</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>23008</v>
+        <v>22550</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>44896</v>
+        <v>44788</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1309702203620944</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09136060778450672</v>
+        <v>0.0895443692280006</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1782776301585552</v>
+        <v>0.1778468513565855</v>
       </c>
     </row>
     <row r="7">
@@ -10073,19 +10073,19 @@
         <v>12010</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6851</v>
+        <v>6668</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21141</v>
+        <v>21184</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.09136826140954871</v>
+        <v>0.09136826140954867</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05211717022074758</v>
+        <v>0.05072245675130814</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1608284787920008</v>
+        <v>0.1611567157446826</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -10094,19 +10094,19 @@
         <v>13001</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7634</v>
+        <v>7829</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19089</v>
+        <v>19606</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1080010442687166</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06341623966356508</v>
+        <v>0.0650311995995583</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1585741633064775</v>
+        <v>0.1628635590907687</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -10115,19 +10115,19 @@
         <v>25012</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17440</v>
+        <v>17439</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34545</v>
+        <v>35426</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.09931906576984019</v>
+        <v>0.09931906576984018</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06925152392751767</v>
+        <v>0.06924937630461465</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1371739469989455</v>
+        <v>0.140674115315231</v>
       </c>
     </row>
     <row r="8">
@@ -10144,19 +10144,19 @@
         <v>100442</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>88144</v>
+        <v>88382</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>110076</v>
+        <v>109656</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7641001123153756</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6705426910591901</v>
+        <v>0.6723540902513829</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.837394526161494</v>
+        <v>0.834193065545762</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>128</v>
@@ -10165,19 +10165,19 @@
         <v>88432</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>80003</v>
+        <v>79921</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>96088</v>
+        <v>95997</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7346043237203219</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6645825493328397</v>
+        <v>0.6638973558161489</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7982028975569154</v>
+        <v>0.7974446314448843</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>231</v>
@@ -10186,19 +10186,19 @@
         <v>188874</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>176011</v>
+        <v>174538</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>201895</v>
+        <v>200940</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7500005327947709</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6989225087307409</v>
+        <v>0.6930742979658215</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8017032021724491</v>
+        <v>0.7979128265701662</v>
       </c>
     </row>
     <row r="9">
@@ -10340,7 +10340,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8048</v>
+        <v>7169</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02423050190497461</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08236816475308337</v>
+        <v>0.07337924832228176</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3170</v>
+        <v>3203</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.006333664835350724</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03176717083178385</v>
+        <v>0.03209559750408078</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -10379,19 +10379,19 @@
         <v>2999</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8058</v>
+        <v>8644</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01518726152603877</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0</v>
+        <v>0.003125097249710519</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0408009911739079</v>
+        <v>0.04376858943142672</v>
       </c>
     </row>
     <row r="12">
@@ -10408,19 +10408,19 @@
         <v>7443</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3359</v>
+        <v>3217</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14711</v>
+        <v>14799</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.07618433825061806</v>
+        <v>0.07618433825061804</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0343792920458595</v>
+        <v>0.03292880764296574</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1505678801146949</v>
+        <v>0.151473861574892</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -10429,19 +10429,19 @@
         <v>11463</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6767</v>
+        <v>6779</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18064</v>
+        <v>19561</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1148666184328656</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06780686366266281</v>
+        <v>0.06793048827211902</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1810157658025899</v>
+        <v>0.196011297894963</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>23</v>
@@ -10450,19 +10450,19 @@
         <v>18906</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>12571</v>
+        <v>12193</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>28315</v>
+        <v>28252</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09573042657519383</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0636500338470683</v>
+        <v>0.0617380694252612</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1433699661399634</v>
+        <v>0.1430510901545678</v>
       </c>
     </row>
     <row r="13">
@@ -10479,19 +10479,19 @@
         <v>10808</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5726</v>
+        <v>5798</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17080</v>
+        <v>17728</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1106258859649603</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05860907735956756</v>
+        <v>0.05934469603416987</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1748129662537448</v>
+        <v>0.1814515268882619</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -10500,19 +10500,19 @@
         <v>8995</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5336</v>
+        <v>5029</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14710</v>
+        <v>15004</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.09013139854034796</v>
+        <v>0.09013139854034799</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0534715942190177</v>
+        <v>0.05038987504377249</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1474056119956034</v>
+        <v>0.1503506793480213</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>26</v>
@@ -10521,19 +10521,19 @@
         <v>19803</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14057</v>
+        <v>13028</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28861</v>
+        <v>28867</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1002700574181152</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07117690976381058</v>
+        <v>0.06596586131384685</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1461333909611209</v>
+        <v>0.1461634503671222</v>
       </c>
     </row>
     <row r="14">
@@ -10550,19 +10550,19 @@
         <v>77083</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>68696</v>
+        <v>68060</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>85072</v>
+        <v>84072</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.788959273879447</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7031148442254122</v>
+        <v>0.6966068933370276</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8707294701553171</v>
+        <v>0.8604979380534128</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>111</v>
@@ -10571,19 +10571,19 @@
         <v>78705</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>70898</v>
+        <v>71001</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>84906</v>
+        <v>85090</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7886683181914359</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7104381385188568</v>
+        <v>0.7114688235262475</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8508023394200073</v>
+        <v>0.852646865223654</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>197</v>
@@ -10592,19 +10592,19 @@
         <v>155788</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>143484</v>
+        <v>143244</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>164666</v>
+        <v>166069</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7888122544806524</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7265121985343179</v>
+        <v>0.7252945823908575</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.83376598747499</v>
+        <v>0.8408667798883592</v>
       </c>
     </row>
     <row r="15">
@@ -10746,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6047</v>
+        <v>5081</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01159327236632966</v>
@@ -10755,7 +10755,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0623342542512292</v>
+        <v>0.05237381993319709</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6481</v>
+        <v>6116</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.007466220516239784</v>
@@ -10789,7 +10789,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04302392182881801</v>
+        <v>0.04060293909224527</v>
       </c>
     </row>
     <row r="18">
@@ -10819,19 +10819,19 @@
         <v>1894</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>4960</v>
+        <v>5326</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.03532179559586281</v>
+        <v>0.0353217955958628</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.00856500617965605</v>
+        <v>0.008328711420221771</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09249589460548437</v>
+        <v>0.09933150040343917</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>3</v>
@@ -10840,19 +10840,19 @@
         <v>1894</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5298</v>
+        <v>4816</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01257409273724785</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.003157755713250136</v>
+        <v>0.003123904052278195</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03517435338087389</v>
+        <v>0.03196940501684503</v>
       </c>
     </row>
     <row r="19">
@@ -10872,16 +10872,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5942</v>
+        <v>6530</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.0189160742611974</v>
+        <v>0.01891607426119739</v>
       </c>
       <c r="H19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06125110852552359</v>
+        <v>0.06731074536991231</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -10890,19 +10890,19 @@
         <v>2759</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6535</v>
+        <v>6447</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.05145626323707747</v>
+        <v>0.05145626323707746</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0132997201388124</v>
+        <v>0.01357050342777189</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1218611049041243</v>
+        <v>0.1202363598214865</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -10911,19 +10911,19 @@
         <v>4594</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1813</v>
+        <v>1964</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9702</v>
+        <v>9279</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03049995177840411</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01203700487361479</v>
+        <v>0.01303862743604668</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06441047335084774</v>
+        <v>0.06160369194471826</v>
       </c>
     </row>
     <row r="20">
@@ -10940,19 +10940,19 @@
         <v>94049</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>88872</v>
+        <v>88746</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>96213</v>
+        <v>96184</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.969490653372473</v>
+        <v>0.9694906533724729</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9161164528130075</v>
+        <v>0.9148273032797039</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9917944447780815</v>
+        <v>0.9914933462977521</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>72</v>
@@ -10961,19 +10961,19 @@
         <v>48970</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>44764</v>
+        <v>44572</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>51812</v>
+        <v>51713</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9132219411670598</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8347861693672153</v>
+        <v>0.8312014526288556</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9662286977237233</v>
+        <v>0.964372926834689</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>174</v>
@@ -10982,19 +10982,19 @@
         <v>143019</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>137376</v>
+        <v>137365</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>146897</v>
+        <v>146879</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9494597349681081</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.912000314419613</v>
+        <v>0.9119218514423364</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9752056340777178</v>
+        <v>0.9750849796872638</v>
       </c>
     </row>
     <row r="21">
@@ -11102,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3529</v>
+        <v>3539</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.00324704398519505</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01629841014038892</v>
+        <v>0.01634398430121496</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -11123,7 +11123,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3968</v>
+        <v>3539</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.001570496863785143</v>
@@ -11132,7 +11132,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.00886280416460686</v>
+        <v>0.007905182507152301</v>
       </c>
     </row>
     <row r="23">
@@ -11152,7 +11152,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10032</v>
+        <v>9490</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01166883995462801</v>
@@ -11161,7 +11161,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04339664115751286</v>
+        <v>0.04105544981382823</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -11170,19 +11170,19 @@
         <v>1906</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5501</v>
+        <v>5258</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.00880219582685441</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.00190348301912752</v>
+        <v>0.001939638498781512</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02540202890351808</v>
+        <v>0.02428347662041521</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5</v>
@@ -11191,19 +11191,19 @@
         <v>4603</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1546</v>
+        <v>1535</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>11570</v>
+        <v>11236</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01028233098438192</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.003452981963951844</v>
+        <v>0.003429401981533905</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02584341463293718</v>
+        <v>0.025096319977356</v>
       </c>
     </row>
     <row r="24">
@@ -11220,19 +11220,19 @@
         <v>7612</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2951</v>
+        <v>2342</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18627</v>
+        <v>16553</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.03293016059071709</v>
+        <v>0.03293016059071708</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01276786178282497</v>
+        <v>0.0101297725117198</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08057990303850775</v>
+        <v>0.07160973743310048</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>9</v>
@@ -11241,19 +11241,19 @@
         <v>7755</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3492</v>
+        <v>3871</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>15037</v>
+        <v>15060</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03581457849206104</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01612548986342724</v>
+        <v>0.01787482113418517</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06944151168235624</v>
+        <v>0.06954885425630304</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>15</v>
@@ -11262,19 +11262,19 @@
         <v>15367</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>9007</v>
+        <v>8658</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>26670</v>
+        <v>25930</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.03432526619709657</v>
+        <v>0.03432526619709658</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02011797427106379</v>
+        <v>0.01933787609792267</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05957194817182361</v>
+        <v>0.05791908609484434</v>
       </c>
     </row>
     <row r="25">
@@ -11291,19 +11291,19 @@
         <v>3865</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11660</v>
+        <v>12840</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01672104991183771</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003901119349962302</v>
+        <v>0.00392045201455634</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0504398804365094</v>
+        <v>0.05554771879416859</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -11315,16 +11315,16 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4307</v>
+        <v>4754</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.005665928092860648</v>
+        <v>0.005665928092860649</v>
       </c>
       <c r="O25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01989050415720056</v>
+        <v>0.02195528038155339</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -11333,19 +11333,19 @@
         <v>5092</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1742</v>
+        <v>1919</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>12675</v>
+        <v>13854</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01137402220767704</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003890278470429957</v>
+        <v>0.004286002558409796</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02831188226258434</v>
+        <v>0.03094501807443477</v>
       </c>
     </row>
     <row r="26">
@@ -11362,19 +11362,19 @@
         <v>216985</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>205770</v>
+        <v>205345</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>224191</v>
+        <v>224183</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9386799495428171</v>
+        <v>0.9386799495428173</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8901643519508277</v>
+        <v>0.888325754685415</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9698530293918988</v>
+        <v>0.9698185300191579</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>293</v>
@@ -11383,19 +11383,19 @@
         <v>204947</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>197438</v>
+        <v>196853</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>209886</v>
+        <v>209679</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9464702536030287</v>
+        <v>0.9464702536030289</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9117923498726878</v>
+        <v>0.909090374188597</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9692808327663471</v>
+        <v>0.9683247058858061</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>521</v>
@@ -11404,19 +11404,19 @@
         <v>421932</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>409525</v>
+        <v>410270</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>430582</v>
+        <v>430545</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9424478837470593</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9147353228158684</v>
+        <v>0.9163996022324263</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9617681447358672</v>
+        <v>0.9616867382040775</v>
       </c>
     </row>
     <row r="27">
@@ -11568,19 +11568,19 @@
         <v>2645</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7187</v>
+        <v>8088</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01212320487463016</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.003319007741601408</v>
+        <v>0.003349835414189923</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03294592069600454</v>
+        <v>0.03707714946227555</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -11589,19 +11589,19 @@
         <v>2645</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7958</v>
+        <v>8295</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.00841970064136708</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.002319848412680708</v>
+        <v>0.002346995250620969</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02533513882948143</v>
+        <v>0.02640938483051005</v>
       </c>
     </row>
     <row r="30">
@@ -11631,19 +11631,19 @@
         <v>5508</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2724</v>
+        <v>2796</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>9871</v>
+        <v>9997</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02524983892660782</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01248518174150296</v>
+        <v>0.01281635692630539</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04524903846763206</v>
+        <v>0.04582999452526067</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>10</v>
@@ -11652,19 +11652,19 @@
         <v>5508</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2570</v>
+        <v>2734</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>9297</v>
+        <v>9879</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01753629400833341</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.008180751024575415</v>
+        <v>0.008704174052088658</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02959869456472541</v>
+        <v>0.03145311618156226</v>
       </c>
     </row>
     <row r="31">
@@ -11684,16 +11684,16 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>3960</v>
+        <v>3800</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.008353770712004632</v>
+        <v>0.008353770712004631</v>
       </c>
       <c r="H31" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04126967447488061</v>
+        <v>0.03960674976163837</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -11705,7 +11705,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4190</v>
+        <v>4109</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.00555785878835659</v>
@@ -11714,7 +11714,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01920956305382462</v>
+        <v>0.01883879473473866</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3</v>
@@ -11723,19 +11723,19 @@
         <v>2014</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>5684</v>
+        <v>5460</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.006411978779905205</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.001809974226040273</v>
+        <v>0.001850037336368618</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01809564780047737</v>
+        <v>0.01738361627977632</v>
       </c>
     </row>
     <row r="32">
@@ -11752,16 +11752,16 @@
         <v>95149</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>91991</v>
+        <v>92151</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>95951</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.9916462292879954</v>
+        <v>0.9916462292879953</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9587303255251194</v>
+        <v>0.9603932502383609</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>1</v>
@@ -11773,19 +11773,19 @@
         <v>208775</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>202922</v>
+        <v>202987</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>212539</v>
+        <v>212679</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.9570690974104055</v>
+        <v>0.9570690974104056</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9302391804761801</v>
+        <v>0.9305364098374046</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.974322878761851</v>
+        <v>0.9749676330212089</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>428</v>
@@ -11794,19 +11794,19 @@
         <v>303925</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>297069</v>
+        <v>298127</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>308135</v>
+        <v>307994</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9676320265703944</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.945804878644685</v>
+        <v>0.9491740600889607</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9810370165959105</v>
+        <v>0.9805881209549556</v>
       </c>
     </row>
     <row r="33">
@@ -11995,16 +11995,16 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13625</v>
+        <v>12695</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.1428195795453787</v>
+        <v>0.1428195795453786</v>
       </c>
       <c r="H36" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.636210036086726</v>
+        <v>0.5927848163122965</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>6</v>
@@ -12013,19 +12013,19 @@
         <v>5864</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2141</v>
+        <v>2093</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>12996</v>
+        <v>13684</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.03011882388744301</v>
+        <v>0.030118823887443</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01099840370675471</v>
+        <v>0.01074875422426199</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.06675356103126943</v>
+        <v>0.07028748464610737</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>7</v>
@@ -12034,19 +12034,19 @@
         <v>8922</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3357</v>
+        <v>3475</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>20405</v>
+        <v>21907</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.04128757296075533</v>
+        <v>0.04128757296075532</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0155329606693178</v>
+        <v>0.01608094267818472</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.09442275411092489</v>
+        <v>0.1013702094633535</v>
       </c>
     </row>
     <row r="37">
@@ -12076,19 +12076,19 @@
         <v>6083</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2942</v>
+        <v>3002</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>10764</v>
+        <v>10731</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03124629815101384</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01511138664085877</v>
+        <v>0.01541768973294804</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05529002611304031</v>
+        <v>0.05512051529272877</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>10</v>
@@ -12097,19 +12097,19 @@
         <v>6083</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2884</v>
+        <v>2932</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>10921</v>
+        <v>10672</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02814976111822063</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01334563100259339</v>
+        <v>0.0135697043343191</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.050537037619513</v>
+        <v>0.04938142772907898</v>
       </c>
     </row>
     <row r="38">
@@ -12126,16 +12126,16 @@
         <v>18357</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>7791</v>
+        <v>8721</v>
       </c>
       <c r="F38" s="5" t="n">
         <v>21416</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.8571804204546215</v>
+        <v>0.8571804204546212</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3637899639132754</v>
+        <v>0.4072151836877036</v>
       </c>
       <c r="I38" s="6" t="n">
         <v>1</v>
@@ -12147,19 +12147,19 @@
         <v>182742</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>175754</v>
+        <v>174829</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>188064</v>
+        <v>187893</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.9386348779615433</v>
+        <v>0.9386348779615432</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9027447153243263</v>
+        <v>0.8979899527874158</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9659692269806286</v>
+        <v>0.9650908431732919</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>273</v>
@@ -12168,19 +12168,19 @@
         <v>201099</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>190245</v>
+        <v>188842</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>207528</v>
+        <v>207609</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.9305626659210242</v>
+        <v>0.9305626659210239</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8803343024979549</v>
+        <v>0.8738435388167962</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9603131151034902</v>
+        <v>0.9606879855119174</v>
       </c>
     </row>
     <row r="39">
@@ -12288,7 +12288,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>4824</v>
+        <v>4195</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.001525638265444902</v>
@@ -12297,7 +12297,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.005340873619896143</v>
+        <v>0.004644411720467301</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2</v>
@@ -12309,16 +12309,16 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4845</v>
+        <v>4813</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.0008732762403215353</v>
+        <v>0.0008732762403215355</v>
       </c>
       <c r="V40" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.003070360125462029</v>
+        <v>0.00305008830432403</v>
       </c>
     </row>
     <row r="41">
@@ -12335,19 +12335,19 @@
         <v>8579</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3820</v>
+        <v>4022</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>16689</v>
+        <v>17668</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01271589610768409</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.005661450291696351</v>
+        <v>0.005961838487742056</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02473516216827708</v>
+        <v>0.02618726897591582</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>10</v>
@@ -12356,19 +12356,19 @@
         <v>7082</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>3784</v>
+        <v>3369</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>13177</v>
+        <v>12696</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.007840856585631861</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.004189784937801363</v>
+        <v>0.003729862034931741</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.0145895408033898</v>
+        <v>0.01405759500504948</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>18</v>
@@ -12377,19 +12377,19 @@
         <v>15661</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>9441</v>
+        <v>9040</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>23741</v>
+        <v>24733</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.009925420618400804</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.005983236882557405</v>
+        <v>0.005729041412156391</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01504639360917877</v>
+        <v>0.01567503457650328</v>
       </c>
     </row>
     <row r="42">
@@ -12406,19 +12406,19 @@
         <v>34723</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>23408</v>
+        <v>22622</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>49861</v>
+        <v>49157</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.05146528774401064</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.03469514090764339</v>
+        <v>0.03352916232131947</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.07390263122487191</v>
+        <v>0.07285790945901723</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>66</v>
@@ -12427,19 +12427,19 @@
         <v>48858</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>37267</v>
+        <v>38174</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>62404</v>
+        <v>64148</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.05409606081742271</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.04126219627967603</v>
+        <v>0.04226727726430491</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.06909512265765717</v>
+        <v>0.07102563007010784</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>94</v>
@@ -12448,19 +12448,19 @@
         <v>83581</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>65489</v>
+        <v>67397</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>103337</v>
+        <v>102899</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.05297114379830833</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.04150484143033268</v>
+        <v>0.04271446632330303</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.06549233371429677</v>
+        <v>0.06521466115014556</v>
       </c>
     </row>
     <row r="43">
@@ -12477,19 +12477,19 @@
         <v>29321</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>20253</v>
+        <v>20379</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>40837</v>
+        <v>41782</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.0434579809545329</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.03001889152148869</v>
+        <v>0.03020458452149139</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.06052688473797498</v>
+        <v>0.06192785952955195</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>51</v>
@@ -12498,19 +12498,19 @@
         <v>33278</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>24734</v>
+        <v>24933</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>43200</v>
+        <v>43896</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.03684565727150128</v>
+        <v>0.03684565727150127</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.02738588729253492</v>
+        <v>0.02760569213711852</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.04783181334955601</v>
+        <v>0.04860262372606401</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>82</v>
@@ -12519,19 +12519,19 @@
         <v>62598</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>50581</v>
+        <v>50253</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>78478</v>
+        <v>78380</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.0396730829898617</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03205696198621664</v>
+        <v>0.03184898521817916</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.04973693621148467</v>
+        <v>0.04967493379684055</v>
       </c>
     </row>
     <row r="44">
@@ -12548,19 +12548,19 @@
         <v>602067</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>583299</v>
+        <v>583903</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>617653</v>
+        <v>618857</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.8923608351937724</v>
+        <v>0.8923608351937723</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8645439940933203</v>
+        <v>0.8654389055076852</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9154620836462699</v>
+        <v>0.9172464872811458</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1194</v>
@@ -12569,19 +12569,19 @@
         <v>812571</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>794765</v>
+        <v>796082</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>827161</v>
+        <v>827292</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.8996917870599993</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.8799766483278455</v>
+        <v>0.8814351007734453</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.915845912973311</v>
+        <v>0.9159912765578614</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1824</v>
@@ -12590,19 +12590,19 @@
         <v>1414638</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1389051</v>
+        <v>1390466</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1438473</v>
+        <v>1438227</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.8965570763531077</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.8803405481807166</v>
+        <v>0.8812373302686982</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9116627608572901</v>
+        <v>0.9115069282772106</v>
       </c>
     </row>
     <row r="45">
